--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_18.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_18.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Shota Okada</t>
+          <t>Satomi Yamamoto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
